--- a/media/pre_process.SetOrder.xlsx
+++ b/media/pre_process.SetOrder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6870DD7-F965-4A81-846E-6A82260518D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D418E5-6B18-496C-8CC3-BF2B844425C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Desired data layout format, accepted values are "HWC", "CHW", "BHWC", "BCHW"
+    <t>Desired data layout format, accepted values are "HWC", "CHW", "BHWC", "BCHW".
 Defaults to "HWC".</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
